--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606825.584321468</v>
+        <v>3604253.629803563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830379</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>328.412423009373</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231276</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.78417002079501</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>123.6064608052453</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
-        <v>352.186531710433</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365806</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.612574238668</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1143.650057298256</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>785.3843586915057</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>399.5961060932614</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717208</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776796</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7159451700456</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718014</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177352</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018221</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018221</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018221</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757141</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781329</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>603.2739732920446</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>603.2739732920446</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>603.2739732920446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>603.2739732920446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634717</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.384514694305</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.08620367465</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.08620367465</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.08620367465</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.946871698839</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064339</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036442</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,10 +5039,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616109</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,10 +6005,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.067041434951</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452619</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718135</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.17510664033</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266882</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.067041434951</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616109</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.2213777565</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270199</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951795</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,7 +8462,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415611</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.164270215632821e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577091</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670454</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.592601670468</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5067.592601670443</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5067.59260167046</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5067.592601670423</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5067.592601670423</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5067.592601670418</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5067.592601670419</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5067.592601670451</v>
+      </c>
+      <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670455</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5067.59260167048</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5067.592601670456</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5067.592601670448</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670457</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5067.592601670463</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.59260167046</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5067.592601670422</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670416</v>
-      </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114427.8260812234</v>
+        <v>-114427.8260812231</v>
       </c>
       <c r="C6" t="n">
-        <v>475540.053133322</v>
+        <v>475540.0531333215</v>
       </c>
       <c r="D6" t="n">
-        <v>475540.0531333211</v>
+        <v>475540.0531333213</v>
       </c>
       <c r="E6" t="n">
-        <v>-303952.2954700314</v>
+        <v>-303987.0333954666</v>
       </c>
       <c r="F6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622424</v>
       </c>
       <c r="G6" t="n">
-        <v>640420.4822876777</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="H6" t="n">
-        <v>640420.4822876777</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="I6" t="n">
-        <v>640420.4822876777</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="J6" t="n">
-        <v>463997.263095085</v>
+        <v>463962.5251696489</v>
       </c>
       <c r="K6" t="n">
-        <v>640420.4822876777</v>
+        <v>640385.7443622419</v>
       </c>
       <c r="L6" t="n">
-        <v>640420.4822876777</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="M6" t="n">
-        <v>516211.9715796189</v>
+        <v>516177.2336541833</v>
       </c>
       <c r="N6" t="n">
-        <v>640420.4822876776</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="O6" t="n">
-        <v>640420.4822876779</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="P6" t="n">
-        <v>640420.4822876781</v>
+        <v>640385.7443622421</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245874</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>78.46362273233848</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>65.52911452950164</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858383</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481178</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>101.4286446528389</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
-        <v>2.496509910249983</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481178</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724745</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839647</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813574</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839647</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813574</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,31 +32555,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>519.7862086120944</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319857</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>437.853104691376</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,25 +34936,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730645</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770685</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751884</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>388.444496528761</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164546</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875412</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770457</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
